--- a/Testdata/SearchStrategyPage_Data_Testing.xlsx
+++ b/Testdata/SearchStrategyPage_Data_Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A3540D-5BCE-44B0-B2CB-934F3352E254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C8AD22-9127-4C40-B2AC-5B14804817BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,18 +94,6 @@
     <t>Automation - RWE search strategy databases</t>
   </si>
   <si>
-    <t>search-strategy-template.xlsx</t>
-  </si>
-  <si>
-    <t>search-strategy-template (1).xlsx</t>
-  </si>
-  <si>
-    <t>search-strategy-template (2).xlsx</t>
-  </si>
-  <si>
-    <t>search-strategy-template (3).xlsx</t>
-  </si>
-  <si>
     <t>Invalid_Files</t>
   </si>
   <si>
@@ -122,6 +110,18 @@
   </si>
   <si>
     <t>Test_Sachin_2022 - Test_Sachin</t>
+  </si>
+  <si>
+    <t>Clinical_search-strategy-template.xlsx</t>
+  </si>
+  <si>
+    <t>Economic_search-strategy-template.xlsx</t>
+  </si>
+  <si>
+    <t>Quality of life_search-strategy-template.xlsx</t>
+  </si>
+  <si>
+    <t>Real-world Evidence_search-strategy-template.xlsx</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,7 +484,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -492,13 +492,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -507,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -527,7 +527,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -538,7 +538,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -547,7 +547,7 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -558,7 +558,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -567,7 +567,7 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/SearchStrategyPage_Data_Testing.xlsx
+++ b/Testdata/SearchStrategyPage_Data_Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C8AD22-9127-4C40-B2AC-5B14804817BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B51F23-43EB-4546-9E83-DF9F1FEB9C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,16 +112,16 @@
     <t>Test_Sachin_2022 - Test_Sachin</t>
   </si>
   <si>
-    <t>Clinical_search-strategy-template.xlsx</t>
-  </si>
-  <si>
-    <t>Economic_search-strategy-template.xlsx</t>
-  </si>
-  <si>
-    <t>Quality of life_search-strategy-template.xlsx</t>
-  </si>
-  <si>
-    <t>Real-world Evidence_search-strategy-template.xlsx</t>
+    <t>Clinical_search-strategy-template_Oncology.xlsx</t>
+  </si>
+  <si>
+    <t>Economic_search-strategy-template_Oncology.xlsx</t>
+  </si>
+  <si>
+    <t>Quality of life_search-strategy-template_Oncology.xlsx</t>
+  </si>
+  <si>
+    <t>Real-world Evidence_search-strategy-template_Oncology.xlsx</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Testdata/SearchStrategyPage_Data_Testing.xlsx
+++ b/Testdata/SearchStrategyPage_Data_Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B51F23-43EB-4546-9E83-DF9F1FEB9C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69EF3BD-0101-4721-A1FF-C2011937B880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Economic</t>
   </si>
@@ -70,58 +70,79 @@
     <t>\Testdata\Templates\SearchStrategy\Clinical&amp;RWE.xlsx</t>
   </si>
   <si>
+    <t>db_search_val</t>
+  </si>
+  <si>
+    <t>Automation - Interventional search strategy databases</t>
+  </si>
+  <si>
+    <t>Automation - Econ search strategy databases</t>
+  </si>
+  <si>
+    <t>Automation - QOL search strategy databases</t>
+  </si>
+  <si>
+    <t>Automation - RWE search strategy databases</t>
+  </si>
+  <si>
+    <t>Invalid_Files</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\SearchStrategy\InvalidDocumentFormat_1.docx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\SearchStrategy\InvalidDocumentFormat_2.html</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\SearchStrategy\InvalidDocumentFormat_3.txt</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\SearchStrategy\InvalidDocumentFormat_4.PNG</t>
+  </si>
+  <si>
+    <t>Test_Sachin_2022 - Test_Sachin</t>
+  </si>
+  <si>
+    <t>Clinical_search-strategy-template_Oncology.xlsx</t>
+  </si>
+  <si>
+    <t>Economic_search-strategy-template_Oncology.xlsx</t>
+  </si>
+  <si>
+    <t>Quality of life_search-strategy-template_Oncology.xlsx</t>
+  </si>
+  <si>
+    <t>Real-world Evidence_search-strategy-template_Oncology.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ManageQAData\1stUpload\Cochrane RoB2 RRMM JA - Copy (3).xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ManageQAData\1stUpload\Cochrane RoB2 RRMM JA - Copy (4).xlsx</t>
+  </si>
+  <si>
+    <t>Population_Radio_button</t>
+  </si>
+  <si>
+    <t>Test_Sachin_2022 - Test_Sachin_radio_button</t>
+  </si>
+  <si>
+    <t>slrtype_Radio_button</t>
+  </si>
+  <si>
+    <t>Clinical_radio_button</t>
+  </si>
+  <si>
+    <t>Economic_radio_button</t>
+  </si>
+  <si>
+    <t>Quality of Life_radio_button</t>
+  </si>
+  <si>
+    <t>Real-world Evidence_radio_button</t>
+  </si>
+  <si>
     <t>\Testdata\Templates\SearchStrategy\ECON.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\SearchStrategy\QOL.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\SearchStrategy\RWE.xlsx</t>
-  </si>
-  <si>
-    <t>db_search_val</t>
-  </si>
-  <si>
-    <t>Automation - Interventional search strategy databases</t>
-  </si>
-  <si>
-    <t>Automation - Econ search strategy databases</t>
-  </si>
-  <si>
-    <t>Automation - QOL search strategy databases</t>
-  </si>
-  <si>
-    <t>Automation - RWE search strategy databases</t>
-  </si>
-  <si>
-    <t>Invalid_Files</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\SearchStrategy\InvalidDocumentFormat_1.docx</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\SearchStrategy\InvalidDocumentFormat_2.html</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\SearchStrategy\InvalidDocumentFormat_3.txt</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\SearchStrategy\InvalidDocumentFormat_4.PNG</t>
-  </si>
-  <si>
-    <t>Test_Sachin_2022 - Test_Sachin</t>
-  </si>
-  <si>
-    <t>Clinical_search-strategy-template_Oncology.xlsx</t>
-  </si>
-  <si>
-    <t>Economic_search-strategy-template_Oncology.xlsx</t>
-  </si>
-  <si>
-    <t>Quality of life_search-strategy-template_Oncology.xlsx</t>
-  </si>
-  <si>
-    <t>Real-world Evidence_search-strategy-template_Oncology.xlsx</t>
   </si>
 </sst>
 </file>
@@ -448,126 +469,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
       <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/SearchStrategyPage_Data_Testing.xlsx
+++ b/Testdata/SearchStrategyPage_Data_Testing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69EF3BD-0101-4721-A1FF-C2011937B880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171B47F6-3C97-427D-8E10-9327644FBBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>Economic</t>
   </si>
@@ -115,12 +115,6 @@
     <t>Real-world Evidence_search-strategy-template_Oncology.xlsx</t>
   </si>
   <si>
-    <t>\Testdata\Templates\ManageQAData\1stUpload\Cochrane RoB2 RRMM JA - Copy (3).xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\ManageQAData\1stUpload\Cochrane RoB2 RRMM JA - Copy (4).xlsx</t>
-  </si>
-  <si>
     <t>Population_Radio_button</t>
   </si>
   <si>
@@ -143,6 +137,27 @@
   </si>
   <si>
     <t>\Testdata\Templates\SearchStrategy\ECON.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\SearchStrategy\QOL.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\SearchStrategy\RWE.xlsx</t>
+  </si>
+  <si>
+    <t>slrtype</t>
+  </si>
+  <si>
+    <t>Quality of Life</t>
+  </si>
+  <si>
+    <t>pop2</t>
+  </si>
+  <si>
+    <t>pop3</t>
+  </si>
+  <si>
+    <t>pop4</t>
   </si>
 </sst>
 </file>
@@ -469,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,13 +496,13 @@
     <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="6" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -495,28 +510,31 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -524,93 +542,123 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
       <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
       <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
       <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Testdata/SearchStrategyPage_Data_Testing.xlsx
+++ b/Testdata/SearchStrategyPage_Data_Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171B47F6-3C97-427D-8E10-9327644FBBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C2E88A-277E-464D-B18A-90A9059E1532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,18 +103,6 @@
     <t>Test_Sachin_2022 - Test_Sachin</t>
   </si>
   <si>
-    <t>Clinical_search-strategy-template_Oncology.xlsx</t>
-  </si>
-  <si>
-    <t>Economic_search-strategy-template_Oncology.xlsx</t>
-  </si>
-  <si>
-    <t>Quality of life_search-strategy-template_Oncology.xlsx</t>
-  </si>
-  <si>
-    <t>Real-world Evidence_search-strategy-template_Oncology.xlsx</t>
-  </si>
-  <si>
     <t>Population_Radio_button</t>
   </si>
   <si>
@@ -158,6 +146,18 @@
   </si>
   <si>
     <t>pop4</t>
+  </si>
+  <si>
+    <t>Clinical_search-strategy-template_Oncology</t>
+  </si>
+  <si>
+    <t>Economic_search-strategy-template_Oncology</t>
+  </si>
+  <si>
+    <t>Quality of life_search-strategy-template_Oncology</t>
+  </si>
+  <si>
+    <t>Real-world Evidence_search-strategy-template_Oncology</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,16 +510,16 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -542,7 +542,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -551,10 +551,10 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -568,13 +568,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -583,13 +583,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
@@ -600,28 +600,28 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
@@ -632,13 +632,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -647,13 +647,13 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>

--- a/Testdata/SearchStrategyPage_Data_Testing.xlsx
+++ b/Testdata/SearchStrategyPage_Data_Testing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C2E88A-277E-464D-B18A-90A9059E1532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015476C0-9D11-4E09-9D87-E0647D5C42F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,9 +61,6 @@
     <t>Population</t>
   </si>
   <si>
-    <t>Template_name</t>
-  </si>
-  <si>
     <t>Files_to_upload</t>
   </si>
   <si>
@@ -158,6 +155,9 @@
   </si>
   <si>
     <t>Real-world Evidence_search-strategy-template_Oncology</t>
+  </si>
+  <si>
+    <t>Template_name_strategy</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,28 +510,28 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -539,10 +539,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -551,30 +551,30 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -583,62 +583,62 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -647,19 +647,19 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
